--- a/FeB/ProektNew/Docs/Finance/Finance.xlsx
+++ b/FeB/ProektNew/Docs/Finance/Finance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1110" windowWidth="9675" windowHeight="8835" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1056" yWindow="1116" windowWidth="9672" windowHeight="8832" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Проект штатного розпису на 2019" sheetId="19" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Проект штатного розпису на 2019'!$A$1:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>Київський національний університет імені Тараса Шевченка</t>
   </si>
@@ -497,15 +497,21 @@
   <si>
     <t>Організаційний внесок для участі у конференції(IV)</t>
   </si>
+  <si>
+    <t>4 кв разом</t>
+  </si>
+  <si>
+    <t>USB флеш накопитель Transcend 64Gb JetFlash 810 USB3.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -925,7 +931,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1137,9 +1143,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1205,6 +1208,18 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1248,15 +1263,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,19 +1274,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1346,42 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1475,6 +1481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1509,6 +1516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1684,177 +1692,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" customWidth="1"/>
     <col min="13" max="13" width="15" style="2" customWidth="1"/>
-    <col min="14" max="14" width="37.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="15.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="37.5546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="15.44140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="120" t="s">
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
       <c r="J7" s="80"/>
       <c r="L7" s="80"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="117" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
       <c r="J8" s="79"/>
       <c r="L8" s="79"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="117" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="79"/>
       <c r="L9" s="79"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="117" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="79"/>
       <c r="L10" s="79"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A11" s="126" t="s">
+    <row r="11" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="78"/>
       <c r="L11" s="78"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A12" s="121" t="s">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="123" t="s">
+      <c r="F12" s="132"/>
+      <c r="G12" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="121" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="128">
         <v>2020</v>
       </c>
-      <c r="K12" s="124"/>
-      <c r="L12" s="123">
+      <c r="K12" s="129"/>
+      <c r="L12" s="128">
         <v>2021</v>
       </c>
-      <c r="M12" s="124"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="M12" s="129"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="4" t="s">
         <v>70</v>
       </c>
@@ -1867,7 +1875,7 @@
       <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="122"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="4" t="s">
         <v>71</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="19.5" thickBot="1">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -1925,54 +1933,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="120"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="81"/>
       <c r="K15" s="12"/>
       <c r="L15" s="81"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="39" customHeight="1">
-      <c r="A16" s="118" t="s">
+    <row r="16" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="8"/>
       <c r="K16" s="13"/>
       <c r="L16" s="8"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="82"/>
       <c r="K17" s="58"/>
       <c r="L17" s="82"/>
       <c r="M17" s="58"/>
     </row>
-    <row r="18" spans="1:16" s="62" customFormat="1" ht="75" hidden="1">
+    <row r="18" spans="1:16" s="62" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
       <c r="B18" s="60" t="s">
         <v>14</v>
@@ -1998,7 +2006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="42" customHeight="1">
+    <row r="19" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41">
         <v>1</v>
       </c>
@@ -2025,29 +2033,29 @@
         <f t="shared" ref="I19:I25" si="0">C19*D19+C19*D19*(E19+F19+H19+G19)/100</f>
         <v>26853.059999999998</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="109">
         <v>3</v>
       </c>
-      <c r="K19" s="112">
+      <c r="K19" s="111">
         <f>J19*I19</f>
         <v>80559.179999999993</v>
       </c>
-      <c r="L19" s="110">
+      <c r="L19" s="109">
         <v>11.5</v>
       </c>
-      <c r="M19" s="112">
+      <c r="M19" s="111">
         <f>L19*I19</f>
         <v>308810.18999999994</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="86">
+      <c r="P19" s="85">
         <f>SUM(I19:I22)*1.22</f>
         <v>93497.969599999982</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="39.6" customHeight="1">
+    <row r="20" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="41">
         <v>2</v>
       </c>
@@ -2074,29 +2082,29 @@
         <f>C20*D20+C20*D20*(E20+F20+H20+G20)/100</f>
         <v>25368.720000000001</v>
       </c>
-      <c r="J20" s="110">
+      <c r="J20" s="109">
         <v>3</v>
       </c>
-      <c r="K20" s="112">
+      <c r="K20" s="111">
         <f t="shared" ref="K20:K22" si="1">J20*I20</f>
         <v>76106.16</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="109">
         <v>11.5</v>
       </c>
-      <c r="M20" s="112">
+      <c r="M20" s="111">
         <f>L20*I20</f>
         <v>291740.28000000003</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="86">
+      <c r="P20" s="85">
         <f>SUM(I19:I22)*2*1.22</f>
         <v>186995.93919999996</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="32.450000000000003" customHeight="1">
+    <row r="21" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41">
         <v>3</v>
       </c>
@@ -2121,29 +2129,29 @@
         <f t="shared" si="0"/>
         <v>15726.7</v>
       </c>
-      <c r="J21" s="110">
+      <c r="J21" s="109">
         <v>3</v>
       </c>
-      <c r="K21" s="112">
+      <c r="K21" s="111">
         <f t="shared" si="1"/>
         <v>47180.100000000006</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="109">
         <v>11.5</v>
       </c>
-      <c r="M21" s="112">
+      <c r="M21" s="111">
         <f t="shared" ref="M21:M25" si="2">L21*I21</f>
         <v>180857.05000000002</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="86">
+      <c r="P21" s="85">
         <f>SUM(I19:I22)*3*1.22</f>
         <v>280493.90879999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="41">
         <v>4</v>
       </c>
@@ -2166,29 +2174,29 @@
         <f t="shared" si="0"/>
         <v>8689.2000000000007</v>
       </c>
-      <c r="J22" s="110">
+      <c r="J22" s="109">
         <v>3</v>
       </c>
-      <c r="K22" s="112">
+      <c r="K22" s="111">
         <f t="shared" si="1"/>
         <v>26067.600000000002</v>
       </c>
-      <c r="L22" s="110">
+      <c r="L22" s="109">
         <v>11.5</v>
       </c>
-      <c r="M22" s="112">
+      <c r="M22" s="111">
         <f t="shared" si="2"/>
         <v>99925.8</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="86">
+      <c r="P22" s="85">
         <f>I26*1.22*3</f>
         <v>390252.55079999997</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="37.5">
+    <row r="23" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A23" s="41">
         <v>5</v>
       </c>
@@ -2213,25 +2221,25 @@
         <f t="shared" si="0"/>
         <v>13838.8</v>
       </c>
-      <c r="J23" s="85">
-        <v>0</v>
-      </c>
-      <c r="K23" s="112">
+      <c r="J23" s="109">
+        <v>3</v>
+      </c>
+      <c r="K23" s="111">
         <f t="shared" ref="K23:K25" si="3">J23*I23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="110">
-        <v>8.5</v>
-      </c>
-      <c r="M23" s="112">
+        <v>41516.399999999994</v>
+      </c>
+      <c r="L23" s="109">
+        <v>11.5</v>
+      </c>
+      <c r="M23" s="111">
         <f t="shared" si="2"/>
-        <v>117629.79999999999</v>
+        <v>159146.19999999998</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="41">
         <v>6</v>
       </c>
@@ -2254,25 +2262,25 @@
         <f t="shared" si="0"/>
         <v>8689.2000000000007</v>
       </c>
-      <c r="J24" s="85">
-        <v>0</v>
-      </c>
-      <c r="K24" s="112">
+      <c r="J24" s="109">
+        <v>3</v>
+      </c>
+      <c r="K24" s="111">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="110">
-        <v>8.5</v>
-      </c>
-      <c r="M24" s="112">
+        <v>26067.600000000002</v>
+      </c>
+      <c r="L24" s="109">
+        <v>11.5</v>
+      </c>
+      <c r="M24" s="111">
         <f t="shared" si="2"/>
-        <v>73858.200000000012</v>
+        <v>99925.8</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19.5" thickBot="1">
+    <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="48">
         <v>12</v>
       </c>
@@ -2291,29 +2299,29 @@
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="111">
+      <c r="I25" s="110">
         <f t="shared" si="0"/>
         <v>7460.7</v>
       </c>
-      <c r="J25" s="85">
-        <v>0</v>
-      </c>
-      <c r="K25" s="112">
+      <c r="J25" s="109">
+        <v>3</v>
+      </c>
+      <c r="K25" s="111">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="110">
-        <v>8.5</v>
-      </c>
-      <c r="M25" s="112">
+        <v>22382.1</v>
+      </c>
+      <c r="L25" s="109">
+        <v>11.5</v>
+      </c>
+      <c r="M25" s="111">
         <f t="shared" si="2"/>
-        <v>63415.95</v>
+        <v>85798.05</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="53" customFormat="1" ht="19.5" thickBot="1">
+    <row r="26" spans="1:16" s="53" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="51" t="s">
         <v>4</v>
@@ -2327,34 +2335,34 @@
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="93">
+      <c r="I26" s="92">
         <f>SUM(I19:I25)</f>
         <v>106626.37999999999</v>
       </c>
       <c r="J26" s="52"/>
-      <c r="K26" s="93">
+      <c r="K26" s="92">
         <f t="shared" ref="K26" si="4">SUM(K19:K25)</f>
-        <v>229913.04</v>
+        <v>319879.13999999996</v>
       </c>
       <c r="L26" s="52"/>
-      <c r="M26" s="93">
+      <c r="M26" s="92">
         <f t="shared" ref="M26" si="5">SUM(M19:M25)</f>
-        <v>1136237.27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>1226203.3700000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="86">
+      <c r="P27" s="85">
         <f>K26*1.22</f>
-        <v>280493.90879999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>390252.55079999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
@@ -2366,9 +2374,9 @@
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="P28" s="86">
+      <c r="P28" s="85">
         <f>M26*1.22</f>
-        <v>1386209.4694000001</v>
+        <v>1495968.1114000001</v>
       </c>
     </row>
   </sheetData>
@@ -2406,123 +2414,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="60" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="13" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="7" max="7" width="14.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-    </row>
-    <row r="3" spans="1:9" hidden="1">
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="F5" s="137" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F5" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="F6" s="137" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F6" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="141" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="148" t="s">
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-    </row>
-    <row r="10" spans="1:9" s="55" customFormat="1" ht="15.75">
-      <c r="A10" s="149" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+    </row>
+    <row r="10" spans="1:9" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:9" ht="63" customHeight="1">
+    <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
@@ -2536,27 +2544,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="128" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="130"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="22" t="s">
         <v>66</v>
       </c>
@@ -2571,15 +2579,15 @@
         <v>93556.05</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>2</v>
       </c>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="22" t="s">
         <v>66</v>
       </c>
@@ -2594,13 +2602,13 @@
         <v>54663.46</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="22" t="s">
         <v>66</v>
       </c>
@@ -2615,13 +2623,13 @@
         <v>53460.6</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="22" t="s">
         <v>66</v>
       </c>
@@ -2636,13 +2644,13 @@
         <v>26730.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
       <c r="E17" s="22" t="s">
         <v>66</v>
       </c>
@@ -2657,13 +2665,13 @@
         <v>26730.3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="22" t="s">
         <v>66</v>
       </c>
@@ -2678,13 +2686,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="64" customFormat="1">
+    <row r="19" spans="1:8" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -2693,25 +2701,25 @@
         <v>257140.71</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A20" s="128" t="s">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="130"/>
-    </row>
-    <row r="21" spans="1:8" ht="37.5" customHeight="1">
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="22" t="s">
         <v>49</v>
       </c>
@@ -2726,13 +2734,13 @@
         <v>26795.52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="41.25" customHeight="1">
+    <row r="22" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="22" t="s">
         <v>49</v>
       </c>
@@ -2747,13 +2755,13 @@
         <v>13397.76</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="38.25" customHeight="1">
+    <row r="23" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="22" t="s">
         <v>49</v>
       </c>
@@ -2768,23 +2776,23 @@
         <v>20067.84</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" ht="45" customHeight="1">
+    <row r="25" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
       <c r="E25" s="22" t="s">
         <v>49</v>
       </c>
@@ -2799,13 +2807,13 @@
         <v>26795.52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42" customHeight="1">
+    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
       <c r="E26" s="22" t="s">
         <v>49</v>
       </c>
@@ -2820,13 +2828,13 @@
         <v>20067.84</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.5" customHeight="1">
+    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
       <c r="E27" s="22" t="s">
         <v>49</v>
       </c>
@@ -2841,25 +2849,25 @@
         <v>52669.440000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="107"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>5</v>
       </c>
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="22" t="s">
         <v>49</v>
       </c>
@@ -2874,15 +2882,15 @@
         <v>1337.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="37.5" customHeight="1">
+    <row r="30" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143"/>
       <c r="E30" s="22" t="s">
         <v>49</v>
       </c>
@@ -2897,15 +2905,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="53" customFormat="1">
-      <c r="A31" s="65">
-        <v>3</v>
-      </c>
-      <c r="B31" s="172" t="s">
+    <row r="31" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="174"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
       <c r="E31" s="22" t="s">
         <v>49</v>
       </c>
@@ -2920,196 +2926,220 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="24"/>
-      <c r="B32" s="128" t="s">
+    <row r="32" spans="1:8" s="53" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="65">
+        <v>3</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="22">
+        <v>5</v>
+      </c>
+      <c r="G32" s="65">
+        <v>474</v>
+      </c>
+      <c r="H32" s="65">
+        <f>+(F32*G32)</f>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="66">
-        <f>SUM(H21:H31)</f>
-        <v>163564.41999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="128" t="s">
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="66">
+        <f>SUM(H21:H32)</f>
+        <v>165934.41999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="130"/>
-    </row>
-    <row r="34" spans="1:10" ht="33" customHeight="1">
-      <c r="A34" s="22">
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
+    </row>
+    <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22">
         <v>1</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B35" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="22" t="s">
+      <c r="C35" s="157"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>12</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G35" s="22">
         <v>81</v>
       </c>
-      <c r="H34" s="67">
-        <f>(F34*G34)</f>
+      <c r="H35" s="67">
+        <f>(F35*G35)</f>
         <v>972</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="68">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="68">
         <v>2</v>
       </c>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="68" t="s">
+      <c r="B36" s="159"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="24"/>
-      <c r="B36" s="128" t="s">
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="66">
-        <f>SUM(H34:H35)</f>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="66">
+        <f>SUM(H35:H36)</f>
         <v>972</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="64" customFormat="1">
-      <c r="A37" s="69"/>
-      <c r="B37" s="136" t="s">
+    <row r="38" spans="1:10" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="69"/>
+      <c r="B38" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="66">
-        <f>H19+H32+H36</f>
-        <v>421677.13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="25"/>
-      <c r="B38" s="17" t="s">
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="66">
+        <f>H19+H33+H37</f>
+        <v>424047.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1"/>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="2" t="s">
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1"/>
-    <row r="44" spans="1:10" s="2" customFormat="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1"/>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="2" t="s">
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1"/>
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B37:D37"/>
+  <mergeCells count="34">
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
@@ -3119,131 +3149,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="19" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="4" max="4" width="30.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="E3" s="131"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="F4" s="155" t="s">
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E3" s="133"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F4" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="F5" s="137" t="s">
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F5" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="141" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="148" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="155" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-    </row>
-    <row r="10" spans="1:9" ht="79.5" customHeight="1">
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+    </row>
+    <row r="10" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156" t="s">
+      <c r="D10" s="170"/>
+      <c r="E10" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="156"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="21" t="s">
         <v>36</v>
       </c>
@@ -3254,21 +3284,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39" customHeight="1">
+    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154">
+      <c r="D11" s="167"/>
+      <c r="E11" s="168">
         <v>2</v>
       </c>
-      <c r="F11" s="154"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="23">
         <v>5</v>
       </c>
@@ -3279,44 +3309,44 @@
         <v>112077.33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="39" customHeight="1">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109" t="s">
+    <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154">
+      <c r="D12" s="167"/>
+      <c r="E12" s="168">
         <v>1</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="109">
+      <c r="F12" s="168"/>
+      <c r="G12" s="108">
         <v>5</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="108">
         <v>5</v>
       </c>
       <c r="I12" s="22">
         <v>26695.040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154">
+      <c r="D13" s="167"/>
+      <c r="E13" s="168">
         <v>1</v>
       </c>
-      <c r="F13" s="154"/>
+      <c r="F13" s="168"/>
       <c r="G13" s="23">
         <v>5</v>
       </c>
@@ -3327,21 +3357,21 @@
         <v>34019.82</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1">
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>3</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="153"/>
-      <c r="E14" s="154">
+      <c r="D14" s="167"/>
+      <c r="E14" s="168">
         <v>2</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="168"/>
       <c r="G14" s="23">
         <v>5</v>
       </c>
@@ -3349,26 +3379,26 @@
         <v>10</v>
       </c>
       <c r="I14" s="22">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="128" t="s">
+        <v>6536.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
       <c r="I15" s="24">
         <f>SUM(I11:I14)</f>
-        <v>178192.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>179329.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -3379,7 +3409,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3387,7 +3417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
@@ -3399,8 +3429,8 @@
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1"/>
-    <row r="20" spans="1:10" s="2" customFormat="1">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -3438,37 +3468,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="48" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="28" customWidth="1"/>
     <col min="7" max="7" width="42" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="28"/>
+    <col min="8" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>48</v>
       </c>
@@ -3480,58 +3510,58 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="160"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="D4" s="155" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="174"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D4" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="D5" s="137" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="158" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="159" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-    </row>
-    <row r="9" spans="1:10" s="73" customFormat="1" ht="96.75" customHeight="1">
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+    </row>
+    <row r="9" spans="1:10" s="73" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>20</v>
       </c>
@@ -3555,19 +3585,19 @@
       </c>
       <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="1:10" s="73" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:10" s="73" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="100"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="72"/>
     </row>
-    <row r="11" spans="1:10" s="73" customFormat="1" ht="23.45" customHeight="1">
+    <row r="11" spans="1:10" s="73" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
         <v>1</v>
       </c>
@@ -3587,13 +3617,13 @@
         <f>E11*D11</f>
         <v>1616837.76</v>
       </c>
-      <c r="G11" s="161" t="s">
+      <c r="G11" s="175" t="s">
         <v>106</v>
       </c>
       <c r="H11" s="72"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="12" spans="1:10" s="73" customFormat="1" ht="15.75">
+    <row r="12" spans="1:10" s="73" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74">
         <v>2</v>
       </c>
@@ -3613,11 +3643,11 @@
         <f>E12*D12</f>
         <v>622782.71999999997</v>
       </c>
-      <c r="G12" s="162"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="72"/>
-      <c r="I12" s="98"/>
-    </row>
-    <row r="13" spans="1:10" s="73" customFormat="1" ht="63">
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:10" s="73" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
         <v>6</v>
       </c>
@@ -3630,7 +3660,7 @@
       <c r="D13" s="75">
         <v>1</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="86">
         <v>22999</v>
       </c>
       <c r="F13" s="74">
@@ -3642,7 +3672,7 @@
       </c>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>110</v>
@@ -3659,21 +3689,21 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="70"/>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="100"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-    </row>
-    <row r="16" spans="1:10" ht="47.25">
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+    </row>
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>7</v>
       </c>
@@ -3697,10 +3727,10 @@
         <v>114</v>
       </c>
       <c r="H16" s="77"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="74">
         <v>8</v>
       </c>
@@ -3722,10 +3752,10 @@
       </c>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
         <v>112</v>
@@ -3739,10 +3769,10 @@
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
       <c r="B19" s="30" t="s">
         <v>113</v>
@@ -3756,34 +3786,34 @@
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="34"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="34"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
         <v>29</v>
@@ -3794,7 +3824,7 @@
       <c r="F22" s="34"/>
       <c r="H22" s="77"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -3803,7 +3833,7 @@
       </c>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
@@ -3815,10 +3845,10 @@
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -3827,19 +3857,19 @@
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="1:10" s="19" customFormat="1">
+    <row r="27" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="20"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="57"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H28" s="77"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H29" s="77"/>
     </row>
   </sheetData>
@@ -3862,402 +3892,443 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="91" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>98</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="D3" s="91"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="D4" s="91"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="88" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="90"/>
+      <c r="E3" s="115"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="90"/>
+      <c r="E4" s="115"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="91"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="89" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="115"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="94">
-        <f>SUM('Проект штатного розпису на 2019'!I19:I22)*1.22</f>
-        <v>93497.969599999982</v>
-      </c>
-      <c r="C6" s="94">
-        <f>SUM('Проект штатного розпису на 2019'!I19:I22)*1.22</f>
-        <v>93497.969599999982</v>
-      </c>
-      <c r="D6" s="95">
-        <f>SUM('Проект штатного розпису на 2019'!I19:I22)*2*1.22</f>
-        <v>186995.93919999996</v>
-      </c>
-      <c r="E6" s="96">
+      <c r="B6" s="93">
+        <f>SUM('Проект штатного розпису на 2019'!I26)*1.22*0.5</f>
+        <v>65042.091799999995</v>
+      </c>
+      <c r="C6" s="93">
+        <f>SUM('Проект штатного розпису на 2019'!I26)*1.22</f>
+        <v>130084.18359999999</v>
+      </c>
+      <c r="D6" s="94">
+        <f>SUM('Проект штатного розпису на 2019'!I26)*1.5*1.22</f>
+        <v>195126.27539999995</v>
+      </c>
+      <c r="E6" s="116">
+        <f>SUM(C6:D6)</f>
+        <v>325210.45899999992</v>
+      </c>
+      <c r="F6" s="95">
         <f>SUM(B6:D6)</f>
-        <v>373991.87839999993</v>
-      </c>
-      <c r="F6" s="94">
+        <v>390252.55079999997</v>
+      </c>
+      <c r="G6" s="93">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
         <v>390252.55079999991</v>
       </c>
-      <c r="G6" s="94">
+      <c r="H6" s="93">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
         <v>390252.55079999991</v>
       </c>
-      <c r="H6" s="94">
-        <f>SUM('Проект штатного розпису на 2019'!I19:I22)*3*1.22</f>
-        <v>280493.90879999998</v>
-      </c>
-      <c r="I6" s="94">
-        <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
+      <c r="I6" s="93">
+        <f>SUM('Проект штатного розпису на 2019'!I26)*3*1.22</f>
         <v>390252.55079999991</v>
       </c>
-      <c r="J6" s="94">
-        <f>SUM(F6:I6)</f>
-        <v>1451251.5611999996</v>
-      </c>
-      <c r="K6" s="94">
-        <f>SUM(E6,J6)</f>
-        <v>1825243.4395999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.149999999999999" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="J6" s="93">
+        <f>SUM('Проект штатного розпису на 2019'!I19:I25)*2.5*1.22</f>
+        <v>325210.45899999992</v>
+      </c>
+      <c r="K6" s="93">
+        <f>SUM(G6:J6)</f>
+        <v>1495968.1113999998</v>
+      </c>
+      <c r="L6" s="93">
+        <f>SUM(F6,K6)</f>
+        <v>1886220.6621999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93">
         <f>SUM('КЕКВ 2210 матеріали'!H21:H23)</f>
         <v>60261.119999999995</v>
       </c>
-      <c r="D7" s="95">
-        <f>SUM('КЕКВ 2210 матеріали'!H29:H31,'КЕКВ 2210 матеріали'!H36)</f>
+      <c r="D7" s="94">
+        <f>SUM('КЕКВ 2210 матеріали'!H29:H31,'КЕКВ 2210 матеріали'!H35)</f>
         <v>4742.5</v>
       </c>
-      <c r="E7" s="96">
-        <f t="shared" ref="E7:E12" si="0">SUM(B7:D7)</f>
+      <c r="E7" s="116">
+        <f t="shared" ref="E7:E12" si="0">SUM(C7:D7)</f>
         <v>65003.619999999995</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="95">
+        <f t="shared" ref="F7:F12" si="1">SUM(B7:D7)</f>
+        <v>65003.619999999995</v>
+      </c>
+      <c r="G7" s="93">
         <f>SUM('КЕКВ 2210 матеріали'!H25:H27)</f>
         <v>99532.800000000003</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94">
-        <f t="shared" ref="J7:J12" si="1">SUM(F7:I7)</f>
-        <v>99532.800000000003</v>
-      </c>
-      <c r="K7" s="94">
-        <f t="shared" ref="K7:K12" si="2">SUM(E7,J7)</f>
-        <v>164536.41999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="88" t="s">
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93">
+        <f>SUM('КЕКВ 2210 матеріали'!H32)</f>
+        <v>2370</v>
+      </c>
+      <c r="K7" s="93">
+        <f t="shared" ref="K7:K12" si="2">SUM(G7:J7)</f>
+        <v>101902.8</v>
+      </c>
+      <c r="L7" s="93">
+        <f t="shared" ref="L7:L12" si="3">SUM(F7,K7)</f>
+        <v>166906.41999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93">
         <f>SUM('КЕКВ 3110 Обладнання'!F14)</f>
         <v>2262619.48</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96">
+      <c r="D8" s="94"/>
+      <c r="E8" s="116">
         <f t="shared" si="0"/>
         <v>2262619.48</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="95">
+        <f t="shared" si="1"/>
+        <v>2262619.48</v>
+      </c>
+      <c r="G8" s="93">
         <f>SUM('КЕКВ 3110 Обладнання'!F18)</f>
         <v>1105747.2</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94">
-        <f t="shared" si="1"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93">
+        <f t="shared" si="2"/>
         <v>1105747.2</v>
       </c>
-      <c r="K8" s="94">
-        <f t="shared" si="2"/>
+      <c r="L8" s="93">
+        <f t="shared" si="3"/>
         <v>3368366.6799999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="88" t="s">
+    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94">
+      <c r="F9" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93">
         <f>SUM('КЕКВ 2250 Відрядження'!I11)</f>
         <v>112077.33</v>
       </c>
-      <c r="H9" s="94">
+      <c r="I9" s="93">
         <f>SUM('КЕКВ 2250 Відрядження'!I12,'КЕКВ 2250 Відрядження'!I14)</f>
-        <v>32095.040000000001</v>
-      </c>
-      <c r="I9" s="94">
+        <v>33231.880000000005</v>
+      </c>
+      <c r="J9" s="93">
         <f>SUM('КЕКВ 2250 Відрядження'!I13)</f>
         <v>34019.82</v>
       </c>
-      <c r="J9" s="94">
+      <c r="K9" s="93">
+        <f t="shared" si="2"/>
+        <v>179329.03000000003</v>
+      </c>
+      <c r="L9" s="93">
+        <f t="shared" si="3"/>
+        <v>179329.03000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="93">
+        <f>SUM(B6:B9,B11)/9</f>
+        <v>7226.8990888888884</v>
+      </c>
+      <c r="C10" s="93">
+        <f t="shared" ref="C10:J10" si="4">SUM(C6:C9,C11)/9</f>
+        <v>272551.64262222219</v>
+      </c>
+      <c r="D10" s="94">
+        <f t="shared" si="4"/>
+        <v>22207.641711111108</v>
+      </c>
+      <c r="E10" s="116">
+        <f t="shared" si="0"/>
+        <v>294759.28433333331</v>
+      </c>
+      <c r="F10" s="95">
         <f t="shared" si="1"/>
-        <v>178192.19</v>
-      </c>
-      <c r="K9" s="94">
+        <v>301986.18342222221</v>
+      </c>
+      <c r="G10" s="93">
+        <f t="shared" si="4"/>
+        <v>177281.39453333331</v>
+      </c>
+      <c r="H10" s="93">
+        <f t="shared" si="4"/>
+        <v>61754.497866666658</v>
+      </c>
+      <c r="I10" s="93">
+        <f t="shared" si="4"/>
+        <v>60641.197866666662</v>
+      </c>
+      <c r="J10" s="93">
+        <f t="shared" si="4"/>
+        <v>49221.559888888878</v>
+      </c>
+      <c r="K10" s="93">
         <f t="shared" si="2"/>
-        <v>178192.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30">
-      <c r="A10" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="94">
-        <f>SUM(B6:B9,B11)/9</f>
-        <v>10388.663288888887</v>
-      </c>
-      <c r="C10" s="94">
-        <f t="shared" ref="C10:I10" si="3">SUM(C6:C9,C11)/9</f>
-        <v>268486.50773333333</v>
-      </c>
-      <c r="D10" s="95">
+        <v>348898.65015555546</v>
+      </c>
+      <c r="L10" s="93">
         <f t="shared" si="3"/>
-        <v>21304.271022222219</v>
-      </c>
-      <c r="E10" s="96">
-        <f t="shared" si="0"/>
-        <v>300179.44204444444</v>
-      </c>
-      <c r="F10" s="94">
-        <f t="shared" si="3"/>
-        <v>177281.39453333331</v>
-      </c>
-      <c r="G10" s="94">
-        <f t="shared" si="3"/>
-        <v>61754.497866666658</v>
-      </c>
-      <c r="H10" s="94">
-        <f t="shared" si="3"/>
-        <v>48319.477644444443</v>
-      </c>
-      <c r="I10" s="94">
-        <f t="shared" si="3"/>
-        <v>56185.125644444437</v>
-      </c>
-      <c r="J10" s="94">
-        <f t="shared" si="1"/>
-        <v>343540.49568888883</v>
-      </c>
-      <c r="K10" s="94">
-        <f t="shared" si="2"/>
-        <v>643719.93773333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="88" t="s">
+        <v>650884.83357777772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94">
+      <c r="F11" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93">
         <f>SUM('КЕКВ 2210 матеріали'!H15)</f>
         <v>53460.6</v>
       </c>
-      <c r="H11" s="94">
+      <c r="I11" s="93">
         <f>SUM('КЕКВ 2210 матеріали'!H13,'КЕКВ 2210 матеріали'!H16,'КЕКВ 2210 матеріали'!H18)</f>
         <v>122286.35</v>
       </c>
-      <c r="I11" s="94">
+      <c r="J11" s="93">
         <f>SUM('КЕКВ 2210 матеріали'!H14,'КЕКВ 2210 матеріали'!H17)</f>
         <v>81393.759999999995</v>
       </c>
-      <c r="J11" s="94">
-        <f t="shared" si="1"/>
-        <v>257140.71000000002</v>
-      </c>
-      <c r="K11" s="94">
+      <c r="K11" s="93">
         <f t="shared" si="2"/>
         <v>257140.71000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="88" t="s">
+      <c r="L11" s="93">
+        <f t="shared" si="3"/>
+        <v>257140.71000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="93">
         <f>SUM(B6:B11)</f>
-        <v>103886.63288888887</v>
-      </c>
-      <c r="C12" s="94">
-        <f t="shared" ref="C12:I12" si="4">SUM(C6:C11)</f>
-        <v>2684865.0773333334</v>
-      </c>
-      <c r="D12" s="95">
-        <f t="shared" si="4"/>
-        <v>213042.71022222217</v>
-      </c>
-      <c r="E12" s="96">
+        <v>72268.990888888889</v>
+      </c>
+      <c r="C12" s="93">
+        <f t="shared" ref="C12:J12" si="5">SUM(C6:C11)</f>
+        <v>2725516.4262222219</v>
+      </c>
+      <c r="D12" s="94">
+        <f t="shared" si="5"/>
+        <v>222076.41711111105</v>
+      </c>
+      <c r="E12" s="116">
         <f t="shared" si="0"/>
-        <v>3001794.4204444448</v>
-      </c>
-      <c r="F12" s="94">
-        <f t="shared" si="4"/>
+        <v>2947592.8433333328</v>
+      </c>
+      <c r="F12" s="95">
+        <f t="shared" si="1"/>
+        <v>3019861.8342222217</v>
+      </c>
+      <c r="G12" s="93">
+        <f t="shared" si="5"/>
         <v>1772813.9453333332</v>
       </c>
-      <c r="G12" s="94">
-        <f t="shared" si="4"/>
+      <c r="H12" s="93">
+        <f t="shared" si="5"/>
         <v>617544.97866666655</v>
       </c>
-      <c r="H12" s="94">
-        <f t="shared" si="4"/>
-        <v>483194.77644444443</v>
-      </c>
-      <c r="I12" s="94">
-        <f t="shared" si="4"/>
-        <v>561851.2564444443</v>
-      </c>
-      <c r="J12" s="94">
-        <f t="shared" si="1"/>
-        <v>3435404.9568888885</v>
-      </c>
-      <c r="K12" s="94">
+      <c r="I12" s="93">
+        <f t="shared" si="5"/>
+        <v>606411.97866666655</v>
+      </c>
+      <c r="J12" s="93">
+        <f t="shared" si="5"/>
+        <v>492215.59888888884</v>
+      </c>
+      <c r="K12" s="93">
         <f t="shared" si="2"/>
-        <v>6437199.3773333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="88" t="s">
+        <v>3488986.501555555</v>
+      </c>
+      <c r="L12" s="93">
+        <f t="shared" si="3"/>
+        <v>6508848.3357777763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="93">
         <f>SUM(B12:C12)</f>
-        <v>2788751.7102222224</v>
-      </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="88" t="s">
+        <v>2797785.4171111109</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="93">
         <f>SUM(B13,D12)</f>
-        <v>3001794.4204444448</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="94">
-        <f>SUM(F12:I12)</f>
-        <v>3435404.9568888885</v>
-      </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
+        <v>3019861.8342222217</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="93">
+        <f>SUM(G12:J12)</f>
+        <v>3488986.501555555</v>
+      </c>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
